--- a/biology/Zoologie/Histioteuthis/Histioteuthis.xlsx
+++ b/biology/Zoologie/Histioteuthis/Histioteuthis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les calmars bijoux ou calmars joyaux forment la famille Histioteuthidae composé uniquement du genre Histioteuthis.
 Ce sont essentiellement des calmars abyssaux, et certains comme le calmar fraise (Histioteuthis heteropsis) sont équipés d'yeux différenciés, un énorme regardant au-dessus et un plus petit regardant au-dessous. 
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (17 février 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (17 février 2016) :
 Histioteuthis arcturi (Robson, 1948)
 Histioteuthis atlantica (Hoyle, 1885)
 Histioteuthis bonnellii (Férussac, 1835)
